--- a/amulet_controller/Generated/Manufacturing/Assembly/amulet_controller-bom.xlsx
+++ b/amulet_controller/Generated/Manufacturing/Assembly/amulet_controller-bom.xlsx
@@ -1735,7 +1735,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2024-10-15 14:10:50</t>
+    <t>2024-10-15 14:27:47</t>
   </si>
   <si>
     <t>KiCost® v1.1.18 + KiBot v1.8.2</t>

--- a/amulet_controller/Generated/Manufacturing/Assembly/amulet_controller-bom.xlsx
+++ b/amulet_controller/Generated/Manufacturing/Assembly/amulet_controller-bom.xlsx
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="580">
   <si>
     <t>Row</t>
   </si>
@@ -184,7 +184,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Unpolarized capacitor, small symbol</t>
+    <t>1000 pF ±10% 25V Ceramic Capacitor X7R 0402 (1005 Metric)</t>
   </si>
   <si>
     <t>C_Small</t>
@@ -223,6 +223,9 @@
     <t>2</t>
   </si>
   <si>
+    <t>3300 pF ±10% 100V Ceramic Capacitor X7R 0402 (1005 Metric)</t>
+  </si>
+  <si>
     <t>C133 C134 C135 C136 C137 C138</t>
   </si>
   <si>
@@ -244,6 +247,9 @@
     <t>490-8261-1-ND</t>
   </si>
   <si>
+    <t>4700 pF ±10% 100V Ceramic Capacitor X7R 0402 (1005 Metric)</t>
+  </si>
+  <si>
     <t>C129</t>
   </si>
   <si>
@@ -262,6 +268,9 @@
     <t>4</t>
   </si>
   <si>
+    <t>10000 pF ±10% 100V Ceramic Capacitor X7R 0402 (1005 Metric)</t>
+  </si>
+  <si>
     <t>C76</t>
   </si>
   <si>
@@ -283,6 +292,9 @@
     <t>5</t>
   </si>
   <si>
+    <t>0.047 µF ±10% 100V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
+  </si>
+  <si>
     <t>C91</t>
   </si>
   <si>
@@ -304,6 +316,9 @@
     <t>399-14764-1-ND</t>
   </si>
   <si>
+    <t>0.1 µF ±10% 50V Ceramic Capacitor X7R 0402 (1005 Metric) 0.1 µF ±10% 16V Ceramic Capacitor X7R 0402 (1005 Metric)</t>
+  </si>
+  <si>
     <t>C3 C4 C5 C8 C10 C11 C27 C28 C29 C90 C101 C102 C103 C104 C105 C107 C108 C109 C111 C112 C113 C114 C115 C125 C126 C127 C128</t>
   </si>
   <si>
@@ -325,7 +340,7 @@
     <t>7</t>
   </si>
   <si>
-    <t>Unpolarized capacitor Unpolarized capacitor, small symbol</t>
+    <t>0.1 µF ±10% 100V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
   </si>
   <si>
     <t>C</t>
@@ -349,6 +364,9 @@
     <t>8</t>
   </si>
   <si>
+    <t>0.1 µF ±10% 100V Ceramic Capacitor X7R 1206 (3216 Metric)</t>
+  </si>
+  <si>
     <t>C95 C97 C99</t>
   </si>
   <si>
@@ -367,6 +385,9 @@
     <t>9</t>
   </si>
   <si>
+    <t>0.22 µF ±10% 100V Ceramic Capacitor X7S 0603 (1608 Metric)</t>
+  </si>
+  <si>
     <t>C23 C25</t>
   </si>
   <si>
@@ -385,7 +406,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>Unpolarized capacitor</t>
+    <t>1 µF ±10% 10V Ceramic Capacitor X7R 0402 (1005 Metric) 1 µF ±10% 6.3V Ceramic Capacitor X7R 0402 (1005 Metric)</t>
   </si>
   <si>
     <t>C2 C6 C9 C24 C26 C94</t>
@@ -406,6 +427,9 @@
     <t>11</t>
   </si>
   <si>
+    <t>1 µF ±10% 25V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
+  </si>
+  <si>
     <t>C60 C88 C93</t>
   </si>
   <si>
@@ -424,6 +448,9 @@
     <t>12</t>
   </si>
   <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 0805 100VDC 2.2uF 10% 1.25mm AEC-Q200</t>
+  </si>
+  <si>
     <t>C15 C16 C17 C18 C20 C45 C52</t>
   </si>
   <si>
@@ -451,6 +478,9 @@
     <t>13</t>
   </si>
   <si>
+    <t>4.7 µF ±10% 16V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
+  </si>
+  <si>
     <t>C1 C84 C110</t>
   </si>
   <si>
@@ -469,6 +499,9 @@
     <t>14</t>
   </si>
   <si>
+    <t>4.7 µF ±10% 100V Ceramic Capacitor X7R 1206 (3216 Metric)</t>
+  </si>
+  <si>
     <t>C89 C96 C98 C100</t>
   </si>
   <si>
@@ -499,6 +532,9 @@
     <t>16</t>
   </si>
   <si>
+    <t>4.7 µF ±20% 25V Ceramic Capacitor X5R 0402 (1005 Metric)</t>
+  </si>
+  <si>
     <t>C7</t>
   </si>
   <si>
@@ -520,6 +556,9 @@
     <t>17</t>
   </si>
   <si>
+    <t>10 µF ±10% 25V Ceramic Capacitor X7R 0805 (2012 Metric)</t>
+  </si>
+  <si>
     <t>C56 C106</t>
   </si>
   <si>
@@ -541,6 +580,9 @@
     <t>18</t>
   </si>
   <si>
+    <t>15 µF ±20% 25V Ceramic Capacitor X7R 1210 (3225 Metric)</t>
+  </si>
+  <si>
     <t>C30 C38</t>
   </si>
   <si>
@@ -562,6 +604,9 @@
     <t>19</t>
   </si>
   <si>
+    <t>22 µF ±20% 10V Ceramic Capacitor X7R 0805 (2012 Metric)</t>
+  </si>
+  <si>
     <t>C37 C83</t>
   </si>
   <si>
@@ -580,6 +625,9 @@
     <t>20</t>
   </si>
   <si>
+    <t>1000 pF ±10% 1000V (1kV) Ceramic Capacitor X7R 0603 (1608 Metric)</t>
+  </si>
+  <si>
     <t>C130 C131 C132</t>
   </si>
   <si>
@@ -598,7 +646,7 @@
     <t>21</t>
   </si>
   <si>
-    <t>100V 1A Schottky Diode, SOD-523-2</t>
+    <t>Diode 100 V 200mA Surface Mount SOD-523</t>
   </si>
   <si>
     <t>BAT41KFILM</t>
@@ -622,7 +670,7 @@
     <t>22</t>
   </si>
   <si>
-    <t>7V/12V, 400W Asymmetrical TVS Diode Array, SOT-23</t>
+    <t>26V, 14V Clamp 17A (8/20µs) Ipp Tvs Diode Surface Mount SOT-23-3</t>
   </si>
   <si>
     <t>CDSOT23-SM712</t>
@@ -646,7 +694,7 @@
     <t>23</t>
   </si>
   <si>
-    <t>Light emitting diode</t>
+    <t>Green 525nm LED Indication - Discrete 3V 1206 (3216 Metric)</t>
   </si>
   <si>
     <t>LED</t>
@@ -676,7 +724,7 @@
     <t>24</t>
   </si>
   <si>
-    <t>ESD Suppressors / TVS Diodes PESD2CANFD24V-UX</t>
+    <t>42V Clamp 2.6A (8/20µs) Ipp Tvs Diode Surface Mount SOT-323</t>
   </si>
   <si>
     <t>PESD2CANFD24V-UX</t>
@@ -736,7 +784,7 @@
     <t>1727-PESD4USB5B-TBSXCT-ND</t>
   </si>
   <si>
-    <t>ESD Suppressors / TVS Diodes 51V 600W Bidir TransZorb 3.5% Tol</t>
+    <t>Surface-Mount TRANSZORB® Transient Voltage Suppressors</t>
   </si>
   <si>
     <t>SMBJ51CD-M3/H</t>
@@ -760,6 +808,9 @@
     <t>28</t>
   </si>
   <si>
+    <t>Yellow 592nm LED Indication - Discrete 2V 1206 (3216 Metric)</t>
+  </si>
+  <si>
     <t>D12</t>
   </si>
   <si>
@@ -778,7 +829,7 @@
     <t>29</t>
   </si>
   <si>
-    <t>Ferrite bead</t>
+    <t>1 kOhms @ 100 MHz 1 Signal Line Ferrite Bead 0805 (2012 Metric) 1A 300mOhm</t>
   </si>
   <si>
     <t>FerriteBead</t>
@@ -805,7 +856,7 @@
     <t>30</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x03, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+    <t>Connector Header Surface Mount, Right Angle 3 position 0.098" (2.50mm)</t>
   </si>
   <si>
     <t>Conn_01x03</t>
@@ -832,7 +883,7 @@
     <t>31</t>
   </si>
   <si>
-    <t>Generic connector, single row with mounting pin</t>
+    <t>Connector Header Surface Mount, Right Angle 2 position 0.079" (2.00mm)</t>
   </si>
   <si>
     <t>Conn_01x02_Mounting</t>
@@ -859,7 +910,7 @@
     <t>32</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x05 with mounting pin</t>
+    <t>Connector Header Surface Mount, Right Angle 5 position 0.049" (1.25mm)</t>
   </si>
   <si>
     <t>Conn_01x05_Mounting</t>
@@ -883,7 +934,7 @@
     <t>33</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x06 with mounting pin</t>
+    <t>Connector Header Surface Mount, Right Angle 6 position 0.049" (1.25mm)</t>
   </si>
   <si>
     <t>Conn_01x06_Mounting</t>
@@ -904,7 +955,7 @@
     <t>34</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x07 with mounting pin</t>
+    <t>Connector Header Surface Mount, Right Angle 7 position 0.049" (1.25mm)</t>
   </si>
   <si>
     <t>Conn_01x07_Mounting</t>
@@ -925,7 +976,7 @@
     <t>35</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x08 with mounting pin</t>
+    <t>Connector Header Surface Mount, Right Angle 8 position 0.049" (1.25mm)</t>
   </si>
   <si>
     <t>Conn_01x08_Mounting</t>
@@ -946,6 +997,9 @@
     <t>36</t>
   </si>
   <si>
+    <t>Socket; DC supply; XT60; female; PIN: 2; on PCBs; THT; yellow; 30A</t>
+  </si>
+  <si>
     <t>J1</t>
   </si>
   <si>
@@ -967,6 +1021,9 @@
     <t>37</t>
   </si>
   <si>
+    <t>Socket; DC supply; XT60; male; PIN: 2; on PCBs; THT; yellow; 30A; 500V</t>
+  </si>
+  <si>
     <t>J2</t>
   </si>
   <si>
@@ -982,7 +1039,7 @@
     <t>38</t>
   </si>
   <si>
-    <t>Inductor</t>
+    <t>Power Inductors - SMD 2.2uH Shld 20% 1.2A 100 mOhms</t>
   </si>
   <si>
     <t>L</t>
@@ -1012,6 +1069,9 @@
     <t>39</t>
   </si>
   <si>
+    <t>Power Inductors - SMD 22uH Shld 20% 830mA 360 mOhms</t>
+  </si>
+  <si>
     <t>L1 L2</t>
   </si>
   <si>
@@ -1054,7 +1114,7 @@
     <t>41</t>
   </si>
   <si>
-    <t>N-Channel 60 V 260A (Tc) 170W (Tc) Surface Mount DSOP Advance 2-5S1A</t>
+    <t>N-Channel 60 V 260A (Tc) 960mW (Ta), 170W (Tc) Surface Mount 8-DSOP Advance</t>
   </si>
   <si>
     <t>TPW1R306PL,L1Q</t>
@@ -1078,7 +1138,7 @@
     <t>42</t>
   </si>
   <si>
-    <t>Resistor, small symbol</t>
+    <t>0.5 mOhms ±1% 2W Chip Resistor 1206 (3216 Metric) Automotive AEC-Q200, Current Sense, Moisture Resistant Metal Element</t>
   </si>
   <si>
     <t>R_Small</t>
@@ -1105,7 +1165,7 @@
     <t>43</t>
   </si>
   <si>
-    <t>Resistor Resistor, small symbol</t>
+    <t>0 Ohms Jumper Chip Resistor 0402 (1005 Metric) Automotive AEC-Q200 Thick Film</t>
   </si>
   <si>
     <t>R</t>
@@ -1135,6 +1195,9 @@
     <t>44</t>
   </si>
   <si>
+    <t>0 Ohms Jumper Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200, Pulse Withstanding Thick Film</t>
+  </si>
+  <si>
     <t>R53</t>
   </si>
   <si>
@@ -1153,6 +1216,9 @@
     <t>45</t>
   </si>
   <si>
+    <t>5 Ohms ±1% 0.4W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200, Current Sense Thin Film</t>
+  </si>
+  <si>
     <t>R55 R56 R57 R58 R59 R60</t>
   </si>
   <si>
@@ -1171,6 +1237,9 @@
     <t>46</t>
   </si>
   <si>
+    <t>7.5 Ohms ±1% 0.5W, 1/2W Chip Resistor 0805 (2012 Metric) Automotive AEC-Q200, Pulse Withstanding Thick Film</t>
+  </si>
+  <si>
     <t>R10 R11 R13 R14 R16 R17</t>
   </si>
   <si>
@@ -1186,6 +1255,9 @@
     <t>47</t>
   </si>
   <si>
+    <t>10 Ohms ±1% 0.333W, 1/3W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200, Pulse Withstanding Thick Film</t>
+  </si>
+  <si>
     <t>R34</t>
   </si>
   <si>
@@ -1201,6 +1273,9 @@
     <t>48</t>
   </si>
   <si>
+    <t>22 Ohms ±1% 0.1W, 1/10W Chip Resistor 0402 (1005 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
     <t>R1 R2 R3</t>
   </si>
   <si>
@@ -1219,6 +1294,9 @@
     <t>49</t>
   </si>
   <si>
+    <t>60.4 Ohms ±1% 0.25W, 1/4W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200, Pulse Withstanding Thick Film</t>
+  </si>
+  <si>
     <t>R50 R51</t>
   </si>
   <si>
@@ -1237,6 +1315,9 @@
     <t>511-ESR03EZPF60R4CT-ND</t>
   </si>
   <si>
+    <t>100 Ohms ±1% 0.2W, 1/5W Chip Resistor 0402 (1005 Metric) Automotive AEC-Q200, Pulse Withstanding Thick Film</t>
+  </si>
+  <si>
     <t>R22 R23 R25 R35 R36 R37 R38 R39 R40 R41 R42 R43 R48 R49</t>
   </si>
   <si>
@@ -1255,6 +1336,9 @@
     <t>51</t>
   </si>
   <si>
+    <t>150 Ohms ±1% 0.2W, 1/5W Chip Resistor 0402 (1005 Metric) Automotive AEC-Q200, Pulse Withstanding Thick Film</t>
+  </si>
+  <si>
     <t>R26</t>
   </si>
   <si>
@@ -1270,6 +1354,9 @@
     <t>52</t>
   </si>
   <si>
+    <t>2 kOhms ±1% 0.1W, 1/10W Chip Resistor 0402 (1005 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
     <t>R8 R9 R28 R44 R45 R46 R47</t>
   </si>
   <si>
@@ -1285,7 +1372,7 @@
     <t>53</t>
   </si>
   <si>
-    <t>Resistor</t>
+    <t>4.7 kOhms ±1% 0.063W, 1/16W Chip Resistor 0402 (1005 Metric) Moisture Resistant Thin Film</t>
   </si>
   <si>
     <t>R30</t>
@@ -1306,6 +1393,9 @@
     <t>54</t>
   </si>
   <si>
+    <t>9.09 kOhms ±1% 0.063W, 1/16W Chip Resistor 0402 (1005 Metric) Thin Film</t>
+  </si>
+  <si>
     <t>R6</t>
   </si>
   <si>
@@ -1321,6 +1411,9 @@
     <t>55</t>
   </si>
   <si>
+    <t>10 kOhms ±1% 0.063W, 1/16W Chip Resistor 0402 (1005 Metric) Thin Film</t>
+  </si>
+  <si>
     <t>R7 R27 R33</t>
   </si>
   <si>
@@ -1336,6 +1429,9 @@
     <t>56</t>
   </si>
   <si>
+    <t>100 kOhms ±1% 0.063W, 1/16W Chip Resistor 0402 (1005 Metric) Thin Film</t>
+  </si>
+  <si>
     <t>R5 R19 R20 R21 R24 R29</t>
   </si>
   <si>
@@ -1378,7 +1474,7 @@
     <t>58</t>
   </si>
   <si>
-    <t>Temperature dependent resistor, negative temperature coefficient</t>
+    <t>NTC Thermistor 47k 4050K 0402 (1005 Metric)</t>
   </si>
   <si>
     <t>Thermistor_NTC</t>
@@ -1402,7 +1498,7 @@
     <t>59</t>
   </si>
   <si>
-    <t>On-Axis Magnetic Position Sensor, 14-bit, PWM Output, ABI Output, UVW Output, SPI Interface, TSSOP-14</t>
+    <t>14-Bit On-Axis Magnetic Rotary Position Sensor with 12-Bit Decimal and Binary Incremental Pulse Count for 28krpm High Speed Capability</t>
   </si>
   <si>
     <t>AS5047P</t>
@@ -1429,7 +1525,7 @@
     <t>60</t>
   </si>
   <si>
-    <t>Magnetic position sensor, 14-bit, PWM output, I2C Interface, TSSOP-14</t>
+    <t>14-bit Magnetic Rotary Encoder, I2C Interface</t>
   </si>
   <si>
     <t>AS5048B</t>
@@ -1474,7 +1570,7 @@
     <t>62</t>
   </si>
   <si>
-    <t>100-V Three-Phase Smart Gate Driver</t>
+    <t>DRV835xF 100-V Three-Phase Smart Gate Driver</t>
   </si>
   <si>
     <t>DRV8353FS</t>
@@ -1501,7 +1597,7 @@
     <t>63</t>
   </si>
   <si>
-    <t>0.6-A Ultra-small synchronous step-down converter</t>
+    <t>LMR36006-Q1 4.2-V to 60-V, 0.6-A Ultra-Small Synchronous Step-Down Converter</t>
   </si>
   <si>
     <t>LMR36006FSCQ</t>
@@ -1525,7 +1621,7 @@
     <t>64</t>
   </si>
   <si>
-    <t>LMR36506-Q1 3-V to 65-V, 0.6-A Synchronous Buck Converter 5V output 2.2MHz fixed</t>
+    <t>LMR36506-Q1 3-V to 65-V, 0.6-A Synchronous Buck Converter Optimized for Size and Light Load Efficiency</t>
   </si>
   <si>
     <t>LMR36506MSC5RPERQ1</t>
@@ -1549,7 +1645,7 @@
     <t>65</t>
   </si>
   <si>
-    <t>Micropower 250-mA Low-Noise Ultra-Low-Dropout Regulator</t>
+    <t>LP2992 Micropower 250-mA Low-Noise Ultra-Low-Dropout Regulator in SOT-23 and WSON Packages Designed for Use With Very Low-ESR Output Capacitors</t>
   </si>
   <si>
     <t>LP2992IM5-3.3/NOPB</t>
@@ -1570,7 +1666,7 @@
     <t>66</t>
   </si>
   <si>
-    <t>Full-Duplex RS-485 Drivers and Receivers, DFN-10</t>
+    <t>SN65HVD3x 3.3-V Full-Duplex RS-485 Drivers and Receivers</t>
   </si>
   <si>
     <t>SN65HVD35DR</t>
@@ -1615,7 +1711,7 @@
     <t>68</t>
   </si>
   <si>
-    <t>1/1 Transceiver Half CANbus 8-SOIC</t>
+    <t>TCAN1051-Q1 Automotive Fault Protected CAN Transceiver with CAN FD</t>
   </si>
   <si>
     <t>TCAN1051HGVDRBRQ1</t>
@@ -1636,7 +1732,7 @@
     <t>69</t>
   </si>
   <si>
-    <t>500mA Step-Down Converter with DCS-Control, fixed 3.3V output, 3-17V input voltage, WSON-8</t>
+    <t>TPS6217x 3-V to 17-V, 0.5-A Step-Down Converters with DCS-Control™</t>
   </si>
   <si>
     <t>TPS62172DSG</t>
@@ -1735,7 +1831,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2024-10-15 14:27:47</t>
+    <t>2024-10-16 11:05:15</t>
   </si>
   <si>
     <t>KiCost® v1.1.18 + KiBot v1.8.2</t>
@@ -2424,7 +2520,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>505</v>
+        <v>537</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2441,13 +2537,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>506</v>
+        <v>538</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>507</v>
+        <v>539</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>516</v>
+        <v>548</v>
       </c>
       <c r="D2" s="3">
         <v>69</v>
@@ -2455,41 +2551,41 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>508</v>
+        <v>540</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>509</v>
+        <v>541</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>517</v>
+        <v>549</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>518</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
-        <v>510</v>
+        <v>542</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>511</v>
+        <v>543</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>519</v>
+        <v>551</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>518</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>512</v>
+        <v>544</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>513</v>
+        <v>545</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>520</v>
+        <v>552</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -2497,13 +2593,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>514</v>
+        <v>546</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>515</v>
+        <v>547</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>521</v>
+        <v>553</v>
       </c>
       <c r="D6" s="3">
         <v>253</v>
@@ -2596,40 +2692,40 @@
         <v>26</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="45" customHeight="1">
@@ -2637,16 +2733,16 @@
         <v>19</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>18</v>
@@ -2658,36 +2754,36 @@
         <v>20</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>18</v>
@@ -2699,39 +2795,39 @@
         <v>20</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L12" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="30" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>13</v>
@@ -2740,80 +2836,80 @@
         <v>20</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="30" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L14" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>26</v>
@@ -2822,39 +2918,39 @@
         <v>20</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="30" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="F16" s="10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>19</v>
@@ -2863,39 +2959,39 @@
         <v>20</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L16" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>26</v>
@@ -2904,80 +3000,80 @@
         <v>20</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="30" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>19</v>
@@ -2986,80 +3082,80 @@
         <v>20</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="30" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>19</v>
@@ -3068,118 +3164,118 @@
         <v>20</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="L21" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="30" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="L22" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="60" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="8" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>18</v>
@@ -3191,39 +3287,39 @@
         <v>20</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L24" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>26</v>
@@ -3232,39 +3328,39 @@
         <v>20</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>26</v>
@@ -3273,39 +3369,39 @@
         <v>20</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="L26" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>26</v>
@@ -3314,39 +3410,39 @@
         <v>20</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="30" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>19</v>
@@ -3355,80 +3451,80 @@
         <v>20</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="L28" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="45" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="L29" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="30" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>26</v>
@@ -3437,39 +3533,39 @@
         <v>20</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="L30" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>13</v>
@@ -3478,39 +3574,39 @@
         <v>20</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="L31" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="30" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>26</v>
@@ -3519,39 +3615,39 @@
         <v>20</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="L32" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>26</v>
@@ -3560,39 +3656,39 @@
         <v>20</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="L33" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="30" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>26</v>
@@ -3601,39 +3697,39 @@
         <v>20</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="L34" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="30" customHeight="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>26</v>
@@ -3642,39 +3738,39 @@
         <v>20</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="L35" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="30" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>13</v>
@@ -3683,80 +3779,80 @@
         <v>20</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="L36" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>26</v>
@@ -3765,39 +3861,39 @@
         <v>20</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="L38" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>26</v>
@@ -3806,39 +3902,39 @@
         <v>20</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>13</v>
@@ -3847,39 +3943,39 @@
         <v>20</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="L40" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>13</v>
@@ -3888,39 +3984,39 @@
         <v>20</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="L41" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>13</v>
@@ -3929,39 +4025,39 @@
         <v>20</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="L42" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>13</v>
@@ -3970,39 +4066,39 @@
         <v>20</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="L43" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="30" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>13</v>
@@ -4011,39 +4107,39 @@
         <v>20</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>13</v>
@@ -4052,39 +4148,39 @@
         <v>20</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>13</v>
@@ -4093,39 +4189,39 @@
         <v>20</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>26</v>
@@ -4134,39 +4230,39 @@
         <v>20</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="30" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>19</v>
@@ -4175,80 +4271,80 @@
         <v>20</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="L48" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="L49" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="30" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>19</v>
@@ -4257,39 +4353,39 @@
         <v>20</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="L50" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>19</v>
@@ -4298,39 +4394,39 @@
         <v>20</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="L51" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="30" customHeight="1">
       <c r="A52" s="8" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>13</v>
@@ -4339,121 +4435,121 @@
         <v>20</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="L52" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="30" customHeight="1">
       <c r="A53" s="5" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="L53" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="30" customHeight="1">
       <c r="A54" s="8" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>312</v>
+        <v>365</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H54" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="L54" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="30" customHeight="1">
       <c r="A55" s="5" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>312</v>
+        <v>371</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>13</v>
@@ -4462,39 +4558,39 @@
         <v>20</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="L55" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="30" customHeight="1">
       <c r="A56" s="8" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>312</v>
+        <v>377</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>19</v>
@@ -4503,39 +4599,39 @@
         <v>20</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="L56" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="30" customHeight="1">
       <c r="A57" s="5" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>312</v>
+        <v>384</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>26</v>
@@ -4544,80 +4640,80 @@
         <v>20</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="L57" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="30" customHeight="1">
       <c r="A58" s="8" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>312</v>
+        <v>391</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="L58" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="30" customHeight="1">
       <c r="A59" s="5" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>312</v>
+        <v>398</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>371</v>
+        <v>399</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>13</v>
@@ -4626,80 +4722,80 @@
         <v>20</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="L59" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="30" customHeight="1">
       <c r="A60" s="8" t="s">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>321</v>
+        <v>404</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>377</v>
+        <v>406</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>378</v>
+        <v>407</v>
       </c>
       <c r="L60" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>379</v>
+        <v>408</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="30" customHeight="1">
       <c r="A61" s="5" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>383</v>
+        <v>412</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>13</v>
@@ -4708,39 +4804,39 @@
         <v>20</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="J61" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="L61" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="8" t="s">
-        <v>387</v>
+        <v>416</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>388</v>
+        <v>418</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>389</v>
+        <v>419</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>13</v>
@@ -4749,39 +4845,39 @@
         <v>20</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="J62" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="L62" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>391</v>
+        <v>421</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="30" customHeight="1">
       <c r="A63" s="5" t="s">
-        <v>392</v>
+        <v>422</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>19</v>
@@ -4790,80 +4886,80 @@
         <v>20</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="J63" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="L63" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>396</v>
+        <v>427</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="30" customHeight="1">
       <c r="A64" s="8" t="s">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>321</v>
+        <v>429</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="J64" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>400</v>
+        <v>432</v>
       </c>
       <c r="L64" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>401</v>
+        <v>433</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="30" customHeight="1">
       <c r="A65" s="5" t="s">
-        <v>402</v>
+        <v>434</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>404</v>
+        <v>436</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>406</v>
+        <v>438</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>407</v>
+        <v>439</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>13</v>
@@ -4872,39 +4968,39 @@
         <v>20</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>408</v>
+        <v>440</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>409</v>
+        <v>441</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>406</v>
+        <v>438</v>
       </c>
       <c r="L65" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M65" s="6" t="s">
-        <v>410</v>
+        <v>442</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="30" customHeight="1">
       <c r="A66" s="8" t="s">
-        <v>411</v>
+        <v>443</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>412</v>
+        <v>444</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>413</v>
+        <v>445</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>414</v>
+        <v>446</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>415</v>
+        <v>447</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>13</v>
@@ -4913,39 +5009,39 @@
         <v>20</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>417</v>
+        <v>449</v>
       </c>
       <c r="L66" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="30" customHeight="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="45" customHeight="1">
       <c r="A67" s="5" t="s">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>420</v>
+        <v>452</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>421</v>
+        <v>453</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>422</v>
+        <v>454</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>421</v>
+        <v>453</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>13</v>
@@ -4954,39 +5050,39 @@
         <v>20</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>424</v>
+        <v>456</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>425</v>
+        <v>457</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>426</v>
+        <v>458</v>
       </c>
       <c r="L67" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>427</v>
+        <v>459</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="30" customHeight="1">
       <c r="A68" s="8" t="s">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>429</v>
+        <v>461</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>430</v>
+        <v>462</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>431</v>
+        <v>463</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>430</v>
+        <v>462</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="G68" s="8" t="s">
         <v>13</v>
@@ -4995,39 +5091,39 @@
         <v>20</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>425</v>
+        <v>457</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>433</v>
+        <v>465</v>
       </c>
       <c r="L68" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>434</v>
+        <v>466</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="5" t="s">
-        <v>435</v>
+        <v>467</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>436</v>
+        <v>468</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>437</v>
+        <v>469</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>438</v>
+        <v>470</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>437</v>
+        <v>469</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>439</v>
+        <v>471</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>13</v>
@@ -5036,39 +5132,39 @@
         <v>20</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>440</v>
+        <v>472</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>441</v>
+        <v>473</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>437</v>
+        <v>469</v>
       </c>
       <c r="L69" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>442</v>
+        <v>474</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="8" t="s">
-        <v>443</v>
+        <v>475</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>444</v>
+        <v>476</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>446</v>
+        <v>478</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>447</v>
+        <v>479</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>13</v>
@@ -5077,39 +5173,39 @@
         <v>20</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>448</v>
+        <v>480</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>449</v>
+        <v>481</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>450</v>
+        <v>482</v>
       </c>
       <c r="L70" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="30" customHeight="1">
       <c r="A71" s="5" t="s">
-        <v>452</v>
+        <v>484</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>454</v>
+        <v>486</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>455</v>
+        <v>487</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>454</v>
+        <v>486</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>456</v>
+        <v>488</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>13</v>
@@ -5118,39 +5214,39 @@
         <v>20</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>449</v>
+        <v>481</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>458</v>
+        <v>490</v>
       </c>
       <c r="L71" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>459</v>
+        <v>491</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="30" customHeight="1">
       <c r="A72" s="8" t="s">
-        <v>460</v>
+        <v>492</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>461</v>
+        <v>493</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>462</v>
+        <v>494</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>463</v>
+        <v>495</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>462</v>
+        <v>494</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>464</v>
+        <v>496</v>
       </c>
       <c r="G72" s="8" t="s">
         <v>13</v>
@@ -5159,39 +5255,39 @@
         <v>20</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>465</v>
+        <v>497</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>449</v>
+        <v>481</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>466</v>
+        <v>498</v>
       </c>
       <c r="L72" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="45" customHeight="1">
       <c r="A73" s="5" t="s">
-        <v>468</v>
+        <v>500</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>469</v>
+        <v>501</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>471</v>
+        <v>503</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>472</v>
+        <v>504</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>13</v>
@@ -5200,39 +5296,39 @@
         <v>20</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>473</v>
+        <v>505</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>449</v>
+        <v>481</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="L73" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M73" s="6" t="s">
-        <v>474</v>
+        <v>506</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="8" t="s">
-        <v>475</v>
+        <v>507</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>476</v>
+        <v>508</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>477</v>
+        <v>509</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>478</v>
+        <v>510</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>477</v>
+        <v>509</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>479</v>
+        <v>511</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>13</v>
@@ -5241,39 +5337,39 @@
         <v>20</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>480</v>
+        <v>512</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>449</v>
+        <v>481</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>477</v>
+        <v>509</v>
       </c>
       <c r="L74" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>481</v>
+        <v>513</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="30" customHeight="1">
       <c r="A75" s="5" t="s">
-        <v>482</v>
+        <v>514</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>483</v>
+        <v>515</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>484</v>
+        <v>516</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>486</v>
+        <v>518</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>487</v>
+        <v>519</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>13</v>
@@ -5282,39 +5378,39 @@
         <v>20</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>486</v>
+        <v>518</v>
       </c>
       <c r="L75" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M75" s="6" t="s">
-        <v>489</v>
+        <v>521</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="30" customHeight="1">
       <c r="A76" s="8" t="s">
-        <v>490</v>
+        <v>522</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>491</v>
+        <v>523</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>492</v>
+        <v>524</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>493</v>
+        <v>525</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>492</v>
+        <v>524</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>494</v>
+        <v>526</v>
       </c>
       <c r="G76" s="8" t="s">
         <v>13</v>
@@ -5323,39 +5419,39 @@
         <v>20</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>495</v>
+        <v>527</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>449</v>
+        <v>481</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>492</v>
+        <v>524</v>
       </c>
       <c r="L76" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>496</v>
+        <v>528</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="30" customHeight="1">
       <c r="A77" s="5" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>498</v>
+        <v>530</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>499</v>
+        <v>531</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>500</v>
+        <v>532</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>499</v>
+        <v>531</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>501</v>
+        <v>533</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>13</v>
@@ -5364,19 +5460,19 @@
         <v>20</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>502</v>
+        <v>534</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>449</v>
+        <v>481</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>503</v>
+        <v>535</v>
       </c>
       <c r="L77" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M77" s="6" t="s">
-        <v>504</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -5412,7 +5508,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="32" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>505</v>
+        <v>537</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5423,13 +5519,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>506</v>
+        <v>538</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>507</v>
+        <v>539</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>527</v>
+        <v>559</v>
       </c>
       <c r="G2" s="11">
         <v>1</v>
@@ -5437,13 +5533,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>508</v>
+        <v>540</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>509</v>
+        <v>541</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>529</v>
+        <v>561</v>
       </c>
       <c r="G3" s="13">
         <f>TotalCost/BoardQty</f>
@@ -5452,13 +5548,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>510</v>
+        <v>542</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>511</v>
+        <v>543</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>528</v>
+        <v>560</v>
       </c>
       <c r="G4" s="14">
         <f>SUM(G10:G78)</f>
@@ -5467,23 +5563,23 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>512</v>
+        <v>544</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>513</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>514</v>
+        <v>546</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>515</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="15" t="s">
-        <v>522</v>
+        <v>554</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -5503,16 +5599,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>523</v>
+        <v>555</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>524</v>
+        <v>556</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>525</v>
+        <v>557</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>526</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1">
@@ -5539,16 +5635,16 @@
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1">
       <c r="A11" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" s="17">
         <f>CEILING(BoardQty*6,1)</f>
@@ -5561,16 +5657,16 @@
     </row>
     <row r="12" spans="1:7" ht="45" customHeight="1">
       <c r="A12" s="17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E12" s="17">
         <f>BoardQty*1</f>
@@ -5583,16 +5679,16 @@
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1">
       <c r="A13" s="17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E13" s="17">
         <f>BoardQty*1</f>
@@ -5605,16 +5701,16 @@
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1">
       <c r="A14" s="17" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E14" s="17">
         <f>BoardQty*1</f>
@@ -5627,16 +5723,16 @@
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1">
       <c r="A15" s="17" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E15" s="17">
         <f>CEILING(BoardQty*27,1)</f>
@@ -5649,16 +5745,16 @@
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1">
       <c r="A16" s="17" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E16" s="17">
         <f>CEILING(BoardQty*2,1)</f>
@@ -5671,16 +5767,16 @@
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1">
       <c r="A17" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>64</v>
-      </c>
       <c r="C17" s="17" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E17" s="17">
         <f>CEILING(BoardQty*3,1)</f>
@@ -5693,16 +5789,16 @@
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1">
       <c r="A18" s="17" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E18" s="17">
         <f>CEILING(BoardQty*2,1)</f>
@@ -5715,16 +5811,16 @@
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1">
       <c r="A19" s="17" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E19" s="17">
         <f>CEILING(BoardQty*6,1)</f>
@@ -5737,16 +5833,16 @@
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1">
       <c r="A20" s="17" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E20" s="17">
         <f>CEILING(BoardQty*3,1)</f>
@@ -5759,16 +5855,16 @@
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1">
       <c r="A21" s="17" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E21" s="17">
         <f>CEILING(BoardQty*7,1)</f>
@@ -5781,16 +5877,16 @@
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1">
       <c r="A22" s="17" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E22" s="17">
         <f>CEILING(BoardQty*3,1)</f>
@@ -5803,16 +5899,16 @@
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1">
       <c r="A23" s="17" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E23" s="17">
         <f>CEILING(BoardQty*4,1)</f>
@@ -5825,16 +5921,16 @@
     </row>
     <row r="24" spans="1:7" ht="60" customHeight="1">
       <c r="A24" s="17" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E24" s="17">
         <f>CEILING(BoardQty*50,1)</f>
@@ -5847,16 +5943,16 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="17" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E25" s="17">
         <f>BoardQty*1</f>
@@ -5869,16 +5965,16 @@
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1">
       <c r="A26" s="17" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E26" s="17">
         <f>CEILING(BoardQty*2,1)</f>
@@ -5891,16 +5987,16 @@
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1">
       <c r="A27" s="17" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="E27" s="17">
         <f>CEILING(BoardQty*2,1)</f>
@@ -5913,16 +6009,16 @@
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1">
       <c r="A28" s="17" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="B28" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>128</v>
-      </c>
       <c r="D28" s="17" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="E28" s="17">
         <f>CEILING(BoardQty*2,1)</f>
@@ -5935,16 +6031,16 @@
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1">
       <c r="A29" s="17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="E29" s="17">
         <f>CEILING(BoardQty*3,1)</f>
@@ -5957,16 +6053,16 @@
     </row>
     <row r="30" spans="1:7" ht="45" customHeight="1">
       <c r="A30" s="17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="E30" s="17">
         <f>CEILING(BoardQty*15,1)</f>
@@ -5979,16 +6075,16 @@
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1">
       <c r="A31" s="17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="E31" s="17">
         <f>CEILING(BoardQty*2,1)</f>
@@ -6001,16 +6097,16 @@
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1">
       <c r="A32" s="17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="E32" s="17">
         <f>BoardQty*1</f>
@@ -6023,16 +6119,16 @@
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1">
       <c r="A33" s="17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="E33" s="17">
         <f>CEILING(BoardQty*2,1)</f>
@@ -6045,16 +6141,16 @@
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1">
       <c r="A34" s="17" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="E34" s="17">
         <f>CEILING(BoardQty*2,1)</f>
@@ -6067,16 +6163,16 @@
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1">
       <c r="A35" s="17" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="E35" s="17">
         <f>CEILING(BoardQty*2,1)</f>
@@ -6089,16 +6185,16 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="17" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="E36" s="17">
         <f>CEILING(BoardQty*2,1)</f>
@@ -6111,16 +6207,16 @@
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1">
       <c r="A37" s="17" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="E37" s="17">
         <f>BoardQty*1</f>
@@ -6133,16 +6229,16 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="17" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="E38" s="17">
         <f>CEILING(BoardQty*4,1)</f>
@@ -6155,16 +6251,16 @@
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1">
       <c r="A39" s="17" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="E39" s="17">
         <f>CEILING(BoardQty*2,1)</f>
@@ -6177,16 +6273,16 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="17" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="E40" s="17">
         <f>CEILING(BoardQty*2,1)</f>
@@ -6199,16 +6295,16 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="17" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="E41" s="17">
         <f>BoardQty*1</f>
@@ -6221,16 +6317,16 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="17" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="E42" s="17">
         <f>BoardQty*1</f>
@@ -6243,16 +6339,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="17" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="E43" s="17">
         <f>BoardQty*1</f>
@@ -6265,16 +6361,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="17" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="E44" s="17">
         <f>BoardQty*1</f>
@@ -6287,16 +6383,16 @@
     </row>
     <row r="45" spans="1:7" ht="30" customHeight="1">
       <c r="A45" s="17" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="E45" s="17">
         <f>BoardQty*1</f>
@@ -6309,16 +6405,16 @@
     </row>
     <row r="46" spans="1:7" ht="30" customHeight="1">
       <c r="A46" s="17" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="E46" s="17">
         <f>BoardQty*1</f>
@@ -6331,16 +6427,16 @@
     </row>
     <row r="47" spans="1:7" ht="30" customHeight="1">
       <c r="A47" s="17" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="E47" s="17">
         <f>BoardQty*1</f>
@@ -6353,16 +6449,16 @@
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1">
       <c r="A48" s="17" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="E48" s="17">
         <f>CEILING(BoardQty*2,1)</f>
@@ -6375,16 +6471,16 @@
     </row>
     <row r="49" spans="1:7" ht="30" customHeight="1">
       <c r="A49" s="17" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="E49" s="17">
         <f>CEILING(BoardQty*3,1)</f>
@@ -6397,16 +6493,16 @@
     </row>
     <row r="50" spans="1:7" ht="30" customHeight="1">
       <c r="A50" s="17" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E50" s="17">
         <f>CEILING(BoardQty*6,1)</f>
@@ -6419,16 +6515,16 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="17" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="E51" s="17">
         <f>CEILING(BoardQty*3,1)</f>
@@ -6441,16 +6537,16 @@
     </row>
     <row r="52" spans="1:7" ht="30" customHeight="1">
       <c r="A52" s="17" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="E52" s="17">
         <f>CEILING(BoardQty*3,1)</f>
@@ -6463,16 +6559,16 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="17" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="E53" s="17">
         <f>BoardQty*1</f>
@@ -6485,16 +6581,16 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="17" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="E54" s="17">
         <f>CEILING(BoardQty*6,1)</f>
@@ -6507,16 +6603,16 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="17" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="E55" s="17">
         <f>CEILING(BoardQty*6,1)</f>
@@ -6529,16 +6625,16 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="17" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="E56" s="17">
         <f>BoardQty*1</f>
@@ -6551,16 +6647,16 @@
     </row>
     <row r="57" spans="1:7" ht="30" customHeight="1">
       <c r="A57" s="17" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="E57" s="17">
         <f>CEILING(BoardQty*3,1)</f>
@@ -6573,16 +6669,16 @@
     </row>
     <row r="58" spans="1:7" ht="30" customHeight="1">
       <c r="A58" s="17" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="E58" s="17">
         <f>CEILING(BoardQty*2,1)</f>
@@ -6595,16 +6691,16 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="17" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="E59" s="17">
         <f>CEILING(BoardQty*14,1)</f>
@@ -6617,16 +6713,16 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="17" t="s">
-        <v>371</v>
+        <v>399</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="E60" s="17">
         <f>BoardQty*1</f>
@@ -6639,16 +6735,16 @@
     </row>
     <row r="61" spans="1:7" ht="30" customHeight="1">
       <c r="A61" s="17" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>377</v>
+        <v>406</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="E61" s="17">
         <f>CEILING(BoardQty*7,1)</f>
@@ -6661,16 +6757,16 @@
     </row>
     <row r="62" spans="1:7" ht="30" customHeight="1">
       <c r="A62" s="17" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>383</v>
+        <v>412</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="E62" s="17">
         <f>BoardQty*1</f>
@@ -6683,16 +6779,16 @@
     </row>
     <row r="63" spans="1:7" ht="30" customHeight="1">
       <c r="A63" s="17" t="s">
-        <v>388</v>
+        <v>418</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>389</v>
+        <v>419</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="E63" s="17">
         <f>BoardQty*1</f>
@@ -6705,16 +6801,16 @@
     </row>
     <row r="64" spans="1:7" ht="30" customHeight="1">
       <c r="A64" s="17" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="E64" s="17">
         <f>CEILING(BoardQty*3,1)</f>
@@ -6727,16 +6823,16 @@
     </row>
     <row r="65" spans="1:7" ht="30" customHeight="1">
       <c r="A65" s="17" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="E65" s="17">
         <f>CEILING(BoardQty*6,1)</f>
@@ -6749,16 +6845,16 @@
     </row>
     <row r="66" spans="1:7" ht="30" customHeight="1">
       <c r="A66" s="17" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>406</v>
+        <v>438</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>407</v>
+        <v>439</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>408</v>
+        <v>440</v>
       </c>
       <c r="E66" s="17">
         <f>BoardQty*1</f>
@@ -6771,16 +6867,16 @@
     </row>
     <row r="67" spans="1:7" ht="30" customHeight="1">
       <c r="A67" s="17" t="s">
-        <v>414</v>
+        <v>446</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>415</v>
+        <v>447</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
       <c r="E67" s="17">
         <f>BoardQty*1</f>
@@ -6793,16 +6889,16 @@
     </row>
     <row r="68" spans="1:7" ht="30" customHeight="1">
       <c r="A68" s="17" t="s">
-        <v>422</v>
+        <v>454</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>421</v>
+        <v>453</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>424</v>
+        <v>456</v>
       </c>
       <c r="E68" s="17">
         <f>BoardQty*1</f>
@@ -6815,16 +6911,16 @@
     </row>
     <row r="69" spans="1:7" ht="30" customHeight="1">
       <c r="A69" s="17" t="s">
-        <v>431</v>
+        <v>463</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>430</v>
+        <v>462</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="E69" s="17">
         <f>BoardQty*1</f>
@@ -6837,16 +6933,16 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="17" t="s">
-        <v>438</v>
+        <v>470</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>437</v>
+        <v>469</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>439</v>
+        <v>471</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>440</v>
+        <v>472</v>
       </c>
       <c r="E70" s="17">
         <f>BoardQty*1</f>
@@ -6859,16 +6955,16 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="17" t="s">
-        <v>446</v>
+        <v>478</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>447</v>
+        <v>479</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>448</v>
+        <v>480</v>
       </c>
       <c r="E71" s="17">
         <f>BoardQty*1</f>
@@ -6881,16 +6977,16 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="17" t="s">
-        <v>455</v>
+        <v>487</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>454</v>
+        <v>486</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>456</v>
+        <v>488</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="E72" s="17">
         <f>BoardQty*1</f>
@@ -6903,16 +6999,16 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="17" t="s">
-        <v>463</v>
+        <v>495</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>462</v>
+        <v>494</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>464</v>
+        <v>496</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>465</v>
+        <v>497</v>
       </c>
       <c r="E73" s="17">
         <f>BoardQty*1</f>
@@ -6925,16 +7021,16 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="17" t="s">
-        <v>471</v>
+        <v>503</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>472</v>
+        <v>504</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>473</v>
+        <v>505</v>
       </c>
       <c r="E74" s="17">
         <f>BoardQty*1</f>
@@ -6947,16 +7043,16 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="17" t="s">
-        <v>478</v>
+        <v>510</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>477</v>
+        <v>509</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>479</v>
+        <v>511</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>480</v>
+        <v>512</v>
       </c>
       <c r="E75" s="17">
         <f>BoardQty*1</f>
@@ -6969,16 +7065,16 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="17" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>486</v>
+        <v>518</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>487</v>
+        <v>519</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="E76" s="17">
         <f>BoardQty*1</f>
@@ -6991,16 +7087,16 @@
     </row>
     <row r="77" spans="1:7" ht="30" customHeight="1">
       <c r="A77" s="17" t="s">
-        <v>493</v>
+        <v>525</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>492</v>
+        <v>524</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>494</v>
+        <v>526</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>495</v>
+        <v>527</v>
       </c>
       <c r="E77" s="17">
         <f>BoardQty*1</f>
@@ -7013,16 +7109,16 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="17" t="s">
-        <v>500</v>
+        <v>532</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>499</v>
+        <v>531</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>501</v>
+        <v>533</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>502</v>
+        <v>534</v>
       </c>
       <c r="E78" s="17">
         <f>BoardQty*1</f>
@@ -7035,15 +7131,15 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="19" t="s">
-        <v>530</v>
+        <v>562</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>531</v>
+        <v>563</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="21" t="s">
-        <v>532</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -7485,77 +7581,77 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>533</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>534</v>
+        <v>566</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>535</v>
+        <v>567</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="22" t="s">
-        <v>537</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>538</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="23" t="s">
-        <v>539</v>
+        <v>571</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="24" t="s">
-        <v>540</v>
+        <v>572</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="25" t="s">
-        <v>541</v>
+        <v>573</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="26" t="s">
-        <v>542</v>
+        <v>574</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="27" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="28" t="s">
-        <v>544</v>
+        <v>576</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="29" t="s">
-        <v>545</v>
+        <v>577</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="30" t="s">
-        <v>546</v>
+        <v>578</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="31" t="s">
-        <v>547</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>

--- a/amulet_controller/Generated/Manufacturing/Assembly/amulet_controller-bom.xlsx
+++ b/amulet_controller/Generated/Manufacturing/Assembly/amulet_controller-bom.xlsx
@@ -1831,7 +1831,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2024-10-16 11:05:15</t>
+    <t>2024-10-16 17:54:17</t>
   </si>
   <si>
     <t>KiCost® v1.1.18 + KiBot v1.8.2</t>

--- a/amulet_controller/Generated/Manufacturing/Assembly/amulet_controller-bom.xlsx
+++ b/amulet_controller/Generated/Manufacturing/Assembly/amulet_controller-bom.xlsx
@@ -1831,7 +1831,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2024-10-16 17:54:17</t>
+    <t>2024-10-16 18:12:09</t>
   </si>
   <si>
     <t>KiCost® v1.1.18 + KiBot v1.8.2</t>
